--- a/examples/HFP_template.xlsx
+++ b/examples/HFP_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6FF884-0654-4774-A72A-79C818C8912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A72B2-B2BD-4E22-ADAC-26ACBF209550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>amount</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -1521,31 +1524,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD187F59-1647-4D73-8093-0AE560367B14}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1556,39 +1562,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85967B50-0BFD-4B90-89C4-6D1438446B29}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/examples/HFP_template.xlsx
+++ b/examples/HFP_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A72B2-B2BD-4E22-ADAC-26ACBF209550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA1A2BE-126F-4CCA-A7E5-059900D6C527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim" sheetId="1" r:id="rId1"/>
@@ -149,12 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +471,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB57614-FCF1-4139-AA0D-31AF55A08D66}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,8 +514,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>2020</v>
+      <c r="A2" s="5">
+        <v>2021</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -526,8 +527,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2021</v>
+      <c r="A3" s="5">
+        <v>2022</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -539,8 +540,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2022</v>
+      <c r="A4" s="5">
+        <v>2023</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -552,8 +553,8 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2023</v>
+      <c r="A5" s="5">
+        <v>2024</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -565,8 +566,8 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2024</v>
+      <c r="A6" s="5">
+        <v>2025</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -578,8 +579,8 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2025</v>
+      <c r="A7" s="5">
+        <v>2026</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -591,8 +592,8 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2026</v>
+      <c r="A8" s="5">
+        <v>2027</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -604,8 +605,8 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2027</v>
+      <c r="A9" s="5">
+        <v>2028</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -617,8 +618,8 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2028</v>
+      <c r="A10" s="5">
+        <v>2029</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -630,8 +631,8 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2029</v>
+      <c r="A11" s="5">
+        <v>2030</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -643,8 +644,8 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2030</v>
+      <c r="A12" s="5">
+        <v>2031</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -656,8 +657,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2031</v>
+      <c r="A13" s="5">
+        <v>2032</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -669,8 +670,8 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2032</v>
+      <c r="A14" s="5">
+        <v>2033</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -682,8 +683,8 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2033</v>
+      <c r="A15" s="5">
+        <v>2034</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -695,8 +696,8 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2034</v>
+      <c r="A16" s="5">
+        <v>2035</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -708,8 +709,8 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>2035</v>
+      <c r="A17" s="5">
+        <v>2036</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -721,8 +722,8 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2036</v>
+      <c r="A18" s="5">
+        <v>2037</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -734,8 +735,8 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>2037</v>
+      <c r="A19" s="5">
+        <v>2038</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -747,8 +748,8 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2038</v>
+      <c r="A20" s="5">
+        <v>2039</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -760,8 +761,8 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>2039</v>
+      <c r="A21" s="5">
+        <v>2040</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -773,8 +774,8 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2040</v>
+      <c r="A22" s="5">
+        <v>2041</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -786,8 +787,8 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>2041</v>
+      <c r="A23" s="5">
+        <v>2042</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -799,8 +800,8 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>2042</v>
+      <c r="A24" s="5">
+        <v>2043</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -812,8 +813,8 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>2043</v>
+      <c r="A25" s="5">
+        <v>2044</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -825,8 +826,8 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>2044</v>
+      <c r="A26" s="5">
+        <v>2045</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -838,8 +839,8 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>2045</v>
+      <c r="A27" s="5">
+        <v>2046</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -851,8 +852,8 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>2046</v>
+      <c r="A28" s="5">
+        <v>2047</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -864,8 +865,8 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>2047</v>
+      <c r="A29" s="5">
+        <v>2048</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -877,8 +878,8 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>2048</v>
+      <c r="A30" s="5">
+        <v>2049</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -890,8 +891,8 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>2049</v>
+      <c r="A31" s="5">
+        <v>2050</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -903,8 +904,8 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>2050</v>
+      <c r="A32" s="5">
+        <v>2051</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -916,8 +917,8 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>2051</v>
+      <c r="A33" s="5">
+        <v>2052</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -929,8 +930,8 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>2052</v>
+      <c r="A34" s="5">
+        <v>2053</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -942,8 +943,8 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>2053</v>
+      <c r="A35" s="5">
+        <v>2054</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -955,8 +956,8 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>2054</v>
+      <c r="A36" s="5">
+        <v>2055</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -968,17 +969,12 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>2055</v>
+      <c r="A37" s="5">
+        <v>2056</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+      <c r="A38" s="5">
         <v>2057</v>
       </c>
     </row>
@@ -990,10 +986,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE7EE4-731B-47FB-9A4E-667972814602}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,8 +1028,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>2020</v>
+      <c r="A2" s="5">
+        <v>2021</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1045,8 +1041,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2021</v>
+      <c r="A3" s="5">
+        <v>2022</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1058,8 +1054,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2022</v>
+      <c r="A4" s="5">
+        <v>2023</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1071,8 +1067,8 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2023</v>
+      <c r="A5" s="5">
+        <v>2024</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1084,8 +1080,8 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2024</v>
+      <c r="A6" s="5">
+        <v>2025</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1097,8 +1093,8 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2025</v>
+      <c r="A7" s="5">
+        <v>2026</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1110,8 +1106,8 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2026</v>
+      <c r="A8" s="5">
+        <v>2027</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1123,8 +1119,8 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2027</v>
+      <c r="A9" s="5">
+        <v>2028</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1136,8 +1132,8 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2028</v>
+      <c r="A10" s="5">
+        <v>2029</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1149,8 +1145,8 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2029</v>
+      <c r="A11" s="5">
+        <v>2030</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1162,8 +1158,8 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2030</v>
+      <c r="A12" s="5">
+        <v>2031</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1175,8 +1171,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2031</v>
+      <c r="A13" s="5">
+        <v>2032</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1188,8 +1184,8 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2032</v>
+      <c r="A14" s="5">
+        <v>2033</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1201,8 +1197,8 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2033</v>
+      <c r="A15" s="5">
+        <v>2034</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1214,8 +1210,8 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2034</v>
+      <c r="A16" s="5">
+        <v>2035</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1227,8 +1223,8 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>2035</v>
+      <c r="A17" s="5">
+        <v>2036</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1240,8 +1236,8 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2036</v>
+      <c r="A18" s="5">
+        <v>2037</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1253,8 +1249,8 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>2037</v>
+      <c r="A19" s="5">
+        <v>2038</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1266,8 +1262,8 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2038</v>
+      <c r="A20" s="5">
+        <v>2039</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1279,8 +1275,8 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>2039</v>
+      <c r="A21" s="5">
+        <v>2040</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1292,8 +1288,8 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2040</v>
+      <c r="A22" s="5">
+        <v>2041</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1305,8 +1301,8 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>2041</v>
+      <c r="A23" s="5">
+        <v>2042</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1318,8 +1314,8 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>2042</v>
+      <c r="A24" s="5">
+        <v>2043</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1331,8 +1327,8 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>2043</v>
+      <c r="A25" s="5">
+        <v>2044</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1344,8 +1340,8 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>2044</v>
+      <c r="A26" s="5">
+        <v>2045</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1357,8 +1353,8 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>2045</v>
+      <c r="A27" s="5">
+        <v>2046</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1370,8 +1366,8 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>2046</v>
+      <c r="A28" s="5">
+        <v>2047</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1383,8 +1379,8 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>2047</v>
+      <c r="A29" s="5">
+        <v>2048</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1396,8 +1392,8 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>2048</v>
+      <c r="A30" s="5">
+        <v>2049</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1409,8 +1405,8 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>2049</v>
+      <c r="A31" s="5">
+        <v>2050</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1422,8 +1418,8 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>2050</v>
+      <c r="A32" s="5">
+        <v>2051</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1435,8 +1431,8 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>2051</v>
+      <c r="A33" s="5">
+        <v>2052</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1448,8 +1444,8 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>2052</v>
+      <c r="A34" s="5">
+        <v>2053</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1461,8 +1457,8 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>2053</v>
+      <c r="A35" s="5">
+        <v>2054</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1474,8 +1470,8 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>2054</v>
+      <c r="A36" s="5">
+        <v>2055</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1487,8 +1483,8 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>2055</v>
+      <c r="A37" s="5">
+        <v>2056</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1500,8 +1496,8 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>2056</v>
+      <c r="A38" s="5">
+        <v>2057</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1511,11 +1507,6 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>2057</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1564,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85967B50-0BFD-4B90-89C4-6D1438446B29}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/examples/HFP_template.xlsx
+++ b/examples/HFP_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdlacasse/Owl/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA1A2BE-126F-4CCA-A7E5-059900D6C527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E1D13F-7869-1F4B-AEFE-E34DC34C2A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -149,13 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,14 +476,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" style="2" customWidth="1"/>
-    <col min="2" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="13" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="2" customWidth="1"/>
+    <col min="2" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="13" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -513,8 +512,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2" s="1"/>
@@ -526,8 +525,8 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2022</v>
       </c>
       <c r="B3" s="1"/>
@@ -539,8 +538,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2023</v>
       </c>
       <c r="B4" s="1"/>
@@ -552,8 +551,8 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2024</v>
       </c>
       <c r="B5" s="1"/>
@@ -565,8 +564,8 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2025</v>
       </c>
       <c r="B6" s="1"/>
@@ -578,8 +577,8 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2026</v>
       </c>
       <c r="B7" s="1"/>
@@ -591,8 +590,8 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2027</v>
       </c>
       <c r="B8" s="1"/>
@@ -604,8 +603,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2028</v>
       </c>
       <c r="B9" s="1"/>
@@ -617,8 +616,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2029</v>
       </c>
       <c r="B10" s="1"/>
@@ -630,8 +629,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2030</v>
       </c>
       <c r="B11" s="1"/>
@@ -643,8 +642,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2031</v>
       </c>
       <c r="B12" s="1"/>
@@ -656,8 +655,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2032</v>
       </c>
       <c r="B13" s="1"/>
@@ -669,8 +668,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2033</v>
       </c>
       <c r="B14" s="1"/>
@@ -682,8 +681,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2034</v>
       </c>
       <c r="B15" s="1"/>
@@ -695,8 +694,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>2035</v>
       </c>
       <c r="B16" s="1"/>
@@ -708,8 +707,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2036</v>
       </c>
       <c r="B17" s="1"/>
@@ -721,8 +720,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2037</v>
       </c>
       <c r="B18" s="1"/>
@@ -734,8 +733,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>2038</v>
       </c>
       <c r="B19" s="1"/>
@@ -747,8 +746,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2039</v>
       </c>
       <c r="B20" s="1"/>
@@ -760,8 +759,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>2040</v>
       </c>
       <c r="B21" s="1"/>
@@ -773,8 +772,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>2041</v>
       </c>
       <c r="B22" s="1"/>
@@ -786,8 +785,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>2042</v>
       </c>
       <c r="B23" s="1"/>
@@ -799,8 +798,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>2043</v>
       </c>
       <c r="B24" s="1"/>
@@ -812,8 +811,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2044</v>
       </c>
       <c r="B25" s="1"/>
@@ -825,8 +824,8 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2045</v>
       </c>
       <c r="B26" s="1"/>
@@ -838,8 +837,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2046</v>
       </c>
       <c r="B27" s="1"/>
@@ -851,8 +850,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>2047</v>
       </c>
       <c r="B28" s="1"/>
@@ -864,8 +863,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2048</v>
       </c>
       <c r="B29" s="1"/>
@@ -877,8 +876,8 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2049</v>
       </c>
       <c r="B30" s="1"/>
@@ -890,8 +889,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2050</v>
       </c>
       <c r="B31" s="1"/>
@@ -903,8 +902,8 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>2051</v>
       </c>
       <c r="B32" s="1"/>
@@ -916,8 +915,8 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>2052</v>
       </c>
       <c r="B33" s="1"/>
@@ -929,8 +928,8 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2053</v>
       </c>
       <c r="B34" s="1"/>
@@ -942,8 +941,8 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>2054</v>
       </c>
       <c r="B35" s="1"/>
@@ -955,8 +954,8 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>2055</v>
       </c>
       <c r="B36" s="1"/>
@@ -968,13 +967,13 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>2056</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>2057</v>
       </c>
     </row>
@@ -988,17 +987,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" style="2" customWidth="1"/>
-    <col min="2" max="9" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="2" customWidth="1"/>
+    <col min="2" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1027,8 +1026,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2" s="1"/>
@@ -1040,8 +1039,8 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2022</v>
       </c>
       <c r="B3" s="1"/>
@@ -1053,8 +1052,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2023</v>
       </c>
       <c r="B4" s="1"/>
@@ -1066,8 +1065,8 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2024</v>
       </c>
       <c r="B5" s="1"/>
@@ -1079,8 +1078,8 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2025</v>
       </c>
       <c r="B6" s="1"/>
@@ -1092,8 +1091,8 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2026</v>
       </c>
       <c r="B7" s="1"/>
@@ -1105,8 +1104,8 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2027</v>
       </c>
       <c r="B8" s="1"/>
@@ -1118,8 +1117,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2028</v>
       </c>
       <c r="B9" s="1"/>
@@ -1131,8 +1130,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2029</v>
       </c>
       <c r="B10" s="1"/>
@@ -1144,8 +1143,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2030</v>
       </c>
       <c r="B11" s="1"/>
@@ -1157,8 +1156,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2031</v>
       </c>
       <c r="B12" s="1"/>
@@ -1170,8 +1169,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2032</v>
       </c>
       <c r="B13" s="1"/>
@@ -1183,8 +1182,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2033</v>
       </c>
       <c r="B14" s="1"/>
@@ -1196,8 +1195,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2034</v>
       </c>
       <c r="B15" s="1"/>
@@ -1209,8 +1208,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>2035</v>
       </c>
       <c r="B16" s="1"/>
@@ -1222,8 +1221,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2036</v>
       </c>
       <c r="B17" s="1"/>
@@ -1235,8 +1234,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2037</v>
       </c>
       <c r="B18" s="1"/>
@@ -1248,8 +1247,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>2038</v>
       </c>
       <c r="B19" s="1"/>
@@ -1261,8 +1260,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2039</v>
       </c>
       <c r="B20" s="1"/>
@@ -1274,8 +1273,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>2040</v>
       </c>
       <c r="B21" s="1"/>
@@ -1287,8 +1286,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>2041</v>
       </c>
       <c r="B22" s="1"/>
@@ -1300,8 +1299,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>2042</v>
       </c>
       <c r="B23" s="1"/>
@@ -1313,8 +1312,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>2043</v>
       </c>
       <c r="B24" s="1"/>
@@ -1326,8 +1325,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2044</v>
       </c>
       <c r="B25" s="1"/>
@@ -1339,8 +1338,8 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2045</v>
       </c>
       <c r="B26" s="1"/>
@@ -1352,8 +1351,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2046</v>
       </c>
       <c r="B27" s="1"/>
@@ -1365,8 +1364,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>2047</v>
       </c>
       <c r="B28" s="1"/>
@@ -1378,8 +1377,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2048</v>
       </c>
       <c r="B29" s="1"/>
@@ -1391,8 +1390,8 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2049</v>
       </c>
       <c r="B30" s="1"/>
@@ -1404,8 +1403,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2050</v>
       </c>
       <c r="B31" s="1"/>
@@ -1417,8 +1416,8 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>2051</v>
       </c>
       <c r="B32" s="1"/>
@@ -1430,8 +1429,8 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>2052</v>
       </c>
       <c r="B33" s="1"/>
@@ -1443,8 +1442,8 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2053</v>
       </c>
       <c r="B34" s="1"/>
@@ -1456,8 +1455,8 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>2054</v>
       </c>
       <c r="B35" s="1"/>
@@ -1469,8 +1468,8 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>2055</v>
       </c>
       <c r="B36" s="1"/>
@@ -1482,8 +1481,8 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>2056</v>
       </c>
       <c r="B37" s="1"/>
@@ -1495,8 +1494,8 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>2057</v>
       </c>
       <c r="B38" s="1"/>
@@ -1518,12 +1517,12 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1553,20 +1552,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85967B50-0BFD-4B90-89C4-6D1438446B29}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1576,19 +1575,22 @@
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/examples/HFP_template.xlsx
+++ b/examples/HFP_template.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>other inc.</t>
+          <t>other inc</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>other inc.</t>
+          <t>other inc</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
